--- a/Use Case Description.xlsx
+++ b/Use Case Description.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\TPADesktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D740901-9C4B-4747-85D3-91ECA513A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7814C3E-E97F-4D4D-B044-C374E1F46653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{9964CAB5-91E7-4DEF-B307-B7BE77D0856F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9964CAB5-91E7-4DEF-B307-B7BE77D0856F}"/>
   </bookViews>
   <sheets>
     <sheet name="Invite To Workspace" sheetId="1" r:id="rId1"/>
     <sheet name="Joining Board" sheetId="3" r:id="rId2"/>
     <sheet name="Create Card on Calendar" sheetId="5" r:id="rId3"/>
     <sheet name="Delete Workspace" sheetId="6" r:id="rId4"/>
-    <sheet name="Leave Work Space" sheetId="7" r:id="rId5"/>
+    <sheet name="Leave Workspace" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>Use case name</t>
   </si>
   <si>
-    <t>Screnario</t>
-  </si>
-  <si>
     <t>Trigger event</t>
   </si>
   <si>
@@ -95,7 +92,208 @@
     <t>Workspace admin and user</t>
   </si>
   <si>
-    <t>Workspace admin go to the workspace detail and click the invite button</t>
+    <t>Manage Workspace, Join Workspace</t>
+  </si>
+  <si>
+    <t>Workspace Admin, User</t>
+  </si>
+  <si>
+    <t>Workspace admin go to the manage workspace, click the invite tab. Workspace admin choose the invite with link</t>
+  </si>
+  <si>
+    <t>System must validate if the workspace is an admin</t>
+  </si>
+  <si>
+    <t>Users have a notification invite to join the workspace</t>
+  </si>
+  <si>
+    <t>1.1 If the user is not found, then show message not found and don’t create a notification
+2. 1 If the user is not an admin, hide the invite tab</t>
+  </si>
+  <si>
+    <t>Joining Board</t>
+  </si>
+  <si>
+    <t>User have a invited link or a notification link based on the workspace admin preference</t>
+  </si>
+  <si>
+    <t>User input the invited link on the join board input or Click the invitation notification give by workspace admin</t>
+  </si>
+  <si>
+    <t>When user in the home, user can choose if they want to join board with an invited link. Or If user have a invite notification they can click on the notification and join the board</t>
+  </si>
+  <si>
+    <t>View All Notification</t>
+  </si>
+  <si>
+    <t>Workspace Admin , User</t>
+  </si>
+  <si>
+    <t>If user don't have any account redirect to register page. If the user is not a workspace member and the board is a private board, then user can't join the board</t>
+  </si>
+  <si>
+    <t>User joined the board or redirect back to home</t>
+  </si>
+  <si>
+    <t>Flow of activities</t>
+  </si>
+  <si>
+    <t>Flow of activites</t>
+  </si>
+  <si>
+    <t>1. 1 User is doesn’t have account then redirect to register
+2. 1 User not a workspace member and the board is private</t>
+  </si>
+  <si>
+    <t>1. Go the join link form
+2. Join a board</t>
+  </si>
+  <si>
+    <t>Create Card on Calendar</t>
+  </si>
+  <si>
+    <t>User want to create card based on calendar</t>
+  </si>
+  <si>
+    <t>Create a card based on calendar</t>
+  </si>
+  <si>
+    <t>When user in the calendar view, user can create account by input basic information of the card</t>
+  </si>
+  <si>
+    <t>Calendar View</t>
+  </si>
+  <si>
+    <t>User, Board Member</t>
+  </si>
+  <si>
+    <t>User, Board Member, Board Admin</t>
+  </si>
+  <si>
+    <t>Validate the inputted data is valid</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Card is created base on the date</t>
+  </si>
+  <si>
+    <t>1. User open Calendar View
+2. User create card on Calendar View</t>
+  </si>
+  <si>
+    <t>1.1 User is not a board member</t>
+  </si>
+  <si>
+    <t>Delete Workspace</t>
+  </si>
+  <si>
+    <t>Deleting a Workspace</t>
+  </si>
+  <si>
+    <t>Workspace Admin want to delete a workspace</t>
+  </si>
+  <si>
+    <t>Workspace Admin deleting a workspace by clicking delete button in the manage workspace menu</t>
+  </si>
+  <si>
+    <t>Workspace Admin, Workspace Member, Board Member, Board Admin</t>
+  </si>
+  <si>
+    <t>Ask Permission Another Admin</t>
+  </si>
+  <si>
+    <t>Workspace Admin</t>
+  </si>
+  <si>
+    <t>Workspace admin must only one</t>
+  </si>
+  <si>
+    <t>Workspace deleted
+All the board is closed</t>
+  </si>
+  <si>
+    <t>1. Workspace Admin go to Manage Workspace menu
+2. Workspace Admin click the delete tab
+3. Workspace admin click the button delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin more than one </t>
+  </si>
+  <si>
+    <t>Leave Workspace</t>
+  </si>
+  <si>
+    <t>Flow of Activites</t>
+  </si>
+  <si>
+    <t>Workspace Member or Admin want to leave the workspace</t>
+  </si>
+  <si>
+    <t>User leave the workspace</t>
+  </si>
+  <si>
+    <t>Workspace Member or Admin leave with the setting/manage workspace menu</t>
+  </si>
+  <si>
+    <t>User, Workspace Member, Workspace Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>User, Workspace Member, Workspace Admin, Board Member, Board Admin</t>
+  </si>
+  <si>
+    <t>There cannot be only one admin in the workspace</t>
+  </si>
+  <si>
+    <t>Delete Workspace if there no member left in the workspace</t>
+  </si>
+  <si>
+    <t>1. User Open Manage Workspace
+2. User click the Leave tab
+3. User click the leave button</t>
+  </si>
+  <si>
+    <t>1. Go to manage workspace
+2. Open invite menu
+3. User input another user email
+4. User click invite button
+5. User click generate link button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3.1 Fetch all users for the selected email
+4.1 Create a notification based on the user email
+4.1 System show genereted invite link to user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2.1 Fetch workspace and board data
+2.2 Set the board member role
+3.3 Add member to the board</t>
+  </si>
+  <si>
+    <t>1.1 Fetch data from board card to calendar
+1.2 Show calendar
+2.1 Created card based on date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Show the manage workspace
+2.1 Show delete tab
+3.1 Delete workspace
+3.2 Show succesfully deleted workspace </t>
+  </si>
+  <si>
+    <t>1.1 Show Manage Workspace Menu
+3.1 Show Leave Tab
+3.2 User leave the workspace
+3.3 If user alone delete workspace</t>
+  </si>
+  <si>
+    <t>Only 1 admin and many member</t>
   </si>
 </sst>
 </file>
@@ -154,21 +352,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,112 +698,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47788247-30B3-4D56-9BD0-82D48026E8C4}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.07421875" customWidth="1"/>
-    <col min="3" max="3" width="28.15234375" customWidth="1"/>
-    <col min="4" max="4" width="29.23046875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" ht="32.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="173.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="173.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -600,12 +826,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -616,104 +842,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAB010A-1C97-4E81-8B11-EA30399D723D}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.07421875" customWidth="1"/>
-    <col min="3" max="3" width="28.15234375" customWidth="1"/>
-    <col min="4" max="4" width="29.23046875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="2:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="2:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="173.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="173.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -722,12 +970,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -738,104 +986,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51126309-93B2-4C9F-BA0A-11801C045B3D}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.07421875" customWidth="1"/>
-    <col min="3" max="3" width="28.15234375" customWidth="1"/>
-    <col min="4" max="4" width="29.23046875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="173.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="173.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -844,12 +1114,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -860,104 +1130,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25374162-B015-4EFE-8B46-9337D02D44A7}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="A14:C14"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.07421875" customWidth="1"/>
-    <col min="3" max="3" width="28.15234375" customWidth="1"/>
-    <col min="4" max="4" width="29.23046875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="173.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="173.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -966,12 +1258,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -980,106 +1272,131 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90921810-AFD4-41F7-B5AC-1A7B21FFD18E}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.07421875" customWidth="1"/>
-    <col min="3" max="3" width="28.15234375" customWidth="1"/>
-    <col min="4" max="4" width="29.23046875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="2:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" ht="21.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="173.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="173.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1088,12 +1405,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
